--- a/Code/Results/Cases/Case_5_202/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_202/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.74704205010688</v>
+        <v>8.938819938647526</v>
       </c>
       <c r="C2">
-        <v>8.834169730462058</v>
+        <v>5.600988739745013</v>
       </c>
       <c r="D2">
-        <v>4.499214925370638</v>
+        <v>4.572609394117377</v>
       </c>
       <c r="E2">
-        <v>29.61745914412067</v>
+        <v>16.48800361265329</v>
       </c>
       <c r="F2">
-        <v>17.80239864025521</v>
+        <v>22.86306017478282</v>
       </c>
       <c r="I2">
-        <v>12.27395289288196</v>
+        <v>19.31656217468171</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.68950168548041</v>
+        <v>8.736392222137528</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.29528647563776</v>
+        <v>17.52924621832931</v>
       </c>
       <c r="O2">
-        <v>13.96771777941183</v>
+        <v>20.43177991603502</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.87207686127159</v>
+        <v>8.595745181530894</v>
       </c>
       <c r="C3">
-        <v>8.316518156137912</v>
+        <v>5.344437272379126</v>
       </c>
       <c r="D3">
-        <v>4.346423726010525</v>
+        <v>4.515740681239266</v>
       </c>
       <c r="E3">
-        <v>27.48265050439615</v>
+        <v>15.55441097959251</v>
       </c>
       <c r="F3">
-        <v>17.32806659166525</v>
+        <v>22.85798319484641</v>
       </c>
       <c r="I3">
-        <v>12.35738010549553</v>
+        <v>19.39331494579942</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.95552134949779</v>
+        <v>8.491567826991453</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.49614384474469</v>
+        <v>17.58768085849675</v>
       </c>
       <c r="O3">
-        <v>13.83745789658705</v>
+        <v>20.48199027864781</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.30450424275833</v>
+        <v>8.379316793265259</v>
       </c>
       <c r="C4">
-        <v>7.982768417775288</v>
+        <v>5.179321475052843</v>
       </c>
       <c r="D4">
-        <v>4.249123180990846</v>
+        <v>4.479922716352376</v>
       </c>
       <c r="E4">
-        <v>26.10762330560827</v>
+        <v>14.95632413581002</v>
       </c>
       <c r="F4">
-        <v>17.04880100494803</v>
+        <v>22.8615069846806</v>
       </c>
       <c r="I4">
-        <v>12.41983382369071</v>
+        <v>19.44440815652837</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.4817194060759</v>
+        <v>8.339027531667458</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.62188010162686</v>
+        <v>17.62520077763389</v>
       </c>
       <c r="O4">
-        <v>13.77105884256308</v>
+        <v>20.51773012443045</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.06557361961337</v>
+        <v>8.289805315195812</v>
       </c>
       <c r="C5">
-        <v>7.842784699192983</v>
+        <v>5.110174352179095</v>
       </c>
       <c r="D5">
-        <v>4.208631612669405</v>
+        <v>4.465107973894142</v>
       </c>
       <c r="E5">
-        <v>25.53085235351321</v>
+        <v>14.70661821184786</v>
       </c>
       <c r="F5">
-        <v>16.9380914792951</v>
+        <v>22.86461198251124</v>
       </c>
       <c r="I5">
-        <v>12.44796852597023</v>
+        <v>19.46622464860703</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.28286654895882</v>
+        <v>8.276404596909028</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.67375245081226</v>
+        <v>17.64090436391063</v>
       </c>
       <c r="O5">
-        <v>13.74730495727796</v>
+        <v>20.53352538254923</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.02543780890675</v>
+        <v>8.274866895163106</v>
       </c>
       <c r="C6">
-        <v>7.819301171093715</v>
+        <v>5.098581682427193</v>
       </c>
       <c r="D6">
-        <v>4.201858358869838</v>
+        <v>4.462635023427376</v>
       </c>
       <c r="E6">
-        <v>25.43407933509384</v>
+        <v>14.66480244666628</v>
       </c>
       <c r="F6">
-        <v>16.91989732234691</v>
+        <v>22.86522831809003</v>
       </c>
       <c r="I6">
-        <v>12.4527984390402</v>
+        <v>19.46990733749204</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.24950001852739</v>
+        <v>8.265981147734605</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.68240488504329</v>
+        <v>17.64353697064661</v>
       </c>
       <c r="O6">
-        <v>13.74355683721445</v>
+        <v>20.53622240527001</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.30131288268197</v>
+        <v>8.378114741901969</v>
       </c>
       <c r="C7">
-        <v>7.980896615633894</v>
+        <v>5.178396398896196</v>
       </c>
       <c r="D7">
-        <v>4.248580451778242</v>
+        <v>4.479723794386929</v>
       </c>
       <c r="E7">
-        <v>26.09991168166427</v>
+        <v>14.95298033449859</v>
       </c>
       <c r="F7">
-        <v>17.047295309605</v>
+        <v>22.86154210416057</v>
       </c>
       <c r="I7">
-        <v>12.42020256916816</v>
+        <v>19.44469835274089</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.47906091866059</v>
+        <v>8.338184714561923</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.6225770680717</v>
+        <v>17.62541088403113</v>
       </c>
       <c r="O7">
-        <v>13.77072526200689</v>
+        <v>20.51793816586435</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.45164158006673</v>
+        <v>8.821805501660975</v>
       </c>
       <c r="C8">
-        <v>8.658995031417307</v>
+        <v>5.51413192611831</v>
       </c>
       <c r="D8">
-        <v>4.447276359513539</v>
+        <v>4.553192520359437</v>
       </c>
       <c r="E8">
-        <v>28.89453725796093</v>
+        <v>16.171406248977</v>
       </c>
       <c r="F8">
-        <v>17.63641439377217</v>
+        <v>22.85993109341566</v>
       </c>
       <c r="I8">
-        <v>12.30030232591479</v>
+        <v>19.3422021219401</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.44124706278853</v>
+        <v>8.652492726037943</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.36405951427252</v>
+        <v>17.54905472874963</v>
       </c>
       <c r="O8">
-        <v>13.91992097185526</v>
+        <v>20.44807106865914</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.46769173344342</v>
+        <v>9.640695799583801</v>
       </c>
       <c r="C9">
-        <v>9.862168974600294</v>
+        <v>6.110539792136334</v>
       </c>
       <c r="D9">
-        <v>4.807876640294865</v>
+        <v>4.689791849368124</v>
       </c>
       <c r="E9">
-        <v>33.87858406054256</v>
+        <v>18.43668239167298</v>
       </c>
       <c r="F9">
-        <v>18.88291790205657</v>
+        <v>22.90945244221206</v>
       </c>
       <c r="I9">
-        <v>12.16082078709458</v>
+        <v>19.17276468284186</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.14353292981186</v>
+        <v>9.247343204631596</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.87485899860262</v>
+        <v>17.4122784791467</v>
       </c>
       <c r="O9">
-        <v>14.32484020526738</v>
+        <v>20.35018428811926</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.80471964292035</v>
+        <v>10.20495719013445</v>
       </c>
       <c r="C10">
-        <v>10.66933846420277</v>
+        <v>6.509086533959637</v>
       </c>
       <c r="D10">
-        <v>5.05350456381101</v>
+        <v>4.785174179689648</v>
       </c>
       <c r="E10">
-        <v>37.25824676789033</v>
+        <v>20.07305316876849</v>
       </c>
       <c r="F10">
-        <v>19.8494355880009</v>
+        <v>22.97785299817613</v>
       </c>
       <c r="I10">
-        <v>12.1260641234876</v>
+        <v>19.06763133117378</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.28143871761339</v>
+        <v>9.666472813777041</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.52420947503501</v>
+        <v>17.3196013855352</v>
       </c>
       <c r="O10">
-        <v>14.6966062964744</v>
+        <v>20.30232048843285</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.38223708221625</v>
+        <v>10.45248734535772</v>
       </c>
       <c r="C11">
-        <v>11.02013999019734</v>
+        <v>6.681506434958139</v>
       </c>
       <c r="D11">
-        <v>5.160780335028845</v>
+        <v>4.827401096023093</v>
       </c>
       <c r="E11">
-        <v>38.73947777559064</v>
+        <v>20.7752704493664</v>
       </c>
       <c r="F11">
-        <v>20.29923694694172</v>
+        <v>23.01587354065716</v>
       </c>
       <c r="I11">
-        <v>12.12710544561512</v>
+        <v>19.0240302538781</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.77481855754937</v>
+        <v>9.852373386948615</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.36609317985901</v>
+        <v>17.27911795372297</v>
       </c>
       <c r="O11">
-        <v>14.88297060340085</v>
+        <v>20.28580655244911</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.59656697919964</v>
+        <v>10.54483155020264</v>
       </c>
       <c r="C12">
-        <v>11.15065665052114</v>
+        <v>6.745502237611032</v>
       </c>
       <c r="D12">
-        <v>5.200741952890279</v>
+        <v>4.843217351457426</v>
       </c>
       <c r="E12">
-        <v>39.2927606817609</v>
+        <v>21.03515283316829</v>
       </c>
       <c r="F12">
-        <v>20.47096119009803</v>
+        <v>23.0312574314405</v>
       </c>
       <c r="I12">
-        <v>12.13010798214546</v>
+        <v>19.00812924808032</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.95818955495884</v>
+        <v>9.922019169569593</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.30637404938294</v>
+        <v>17.26402753495288</v>
       </c>
       <c r="O12">
-        <v>14.95610597974142</v>
+        <v>20.28031199204047</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.55060037623129</v>
+        <v>10.52500646403383</v>
       </c>
       <c r="C13">
-        <v>11.1226503316386</v>
+        <v>6.731777491317749</v>
       </c>
       <c r="D13">
-        <v>5.192165208930739</v>
+        <v>4.839818890874811</v>
       </c>
       <c r="E13">
-        <v>39.17393280059472</v>
+        <v>20.979450269646</v>
       </c>
       <c r="F13">
-        <v>20.43391610161642</v>
+        <v>23.02790048672481</v>
       </c>
       <c r="I13">
-        <v>12.12934232893634</v>
+        <v>19.01152665793708</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.9188507332859</v>
+        <v>9.907054073074653</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.3192294462191</v>
+        <v>17.26726688153117</v>
       </c>
       <c r="O13">
-        <v>14.94023966571973</v>
+        <v>20.28146155369951</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.39995726324705</v>
+        <v>10.46011280418878</v>
       </c>
       <c r="C14">
-        <v>11.03092404505256</v>
+        <v>6.686797474023811</v>
       </c>
       <c r="D14">
-        <v>5.164081361535945</v>
+        <v>4.828705837955122</v>
       </c>
       <c r="E14">
-        <v>38.78514678734859</v>
+        <v>20.79677183394269</v>
       </c>
       <c r="F14">
-        <v>20.31333715733689</v>
+        <v>23.01711945740166</v>
       </c>
       <c r="I14">
-        <v>12.12729911510218</v>
+        <v>19.02270983468863</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.78997377808684</v>
+        <v>9.858118587352095</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.36117719342811</v>
+        <v>17.27787165724953</v>
       </c>
       <c r="O14">
-        <v>14.8889356551156</v>
+        <v>20.28533928839144</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.30711739982571</v>
+        <v>10.42018051987005</v>
       </c>
       <c r="C15">
-        <v>10.97443744039836</v>
+        <v>6.659076658829463</v>
       </c>
       <c r="D15">
-        <v>5.146792515015803</v>
+        <v>4.821875890675936</v>
       </c>
       <c r="E15">
-        <v>38.54602510577261</v>
+        <v>20.68409143438198</v>
       </c>
       <c r="F15">
-        <v>20.23965908321269</v>
+        <v>23.01064399768282</v>
       </c>
       <c r="I15">
-        <v>12.12639283510237</v>
+        <v>19.02963933183471</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.71058313862846</v>
+        <v>9.828044578586272</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.3868903308857</v>
+        <v>17.28439857916186</v>
       </c>
       <c r="O15">
-        <v>14.85784670702287</v>
+        <v>20.28781341615472</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.76636396688895</v>
+        <v>10.18858976415794</v>
       </c>
       <c r="C16">
-        <v>10.64608559659824</v>
+        <v>6.497638087373522</v>
       </c>
       <c r="D16">
-        <v>5.046402311061147</v>
+        <v>4.782390550488811</v>
       </c>
       <c r="E16">
-        <v>37.16035179615213</v>
+        <v>20.02631573808457</v>
       </c>
       <c r="F16">
-        <v>19.82023812672956</v>
+        <v>22.97550667843961</v>
       </c>
       <c r="I16">
-        <v>12.12635085764031</v>
+        <v>19.07056596924025</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.24870913082391</v>
+        <v>9.654222155501122</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.53456711080494</v>
+        <v>17.32228069194867</v>
       </c>
       <c r="O16">
-        <v>14.68478117128755</v>
+        <v>20.30350577803943</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.426800203878</v>
+        <v>10.04411585700317</v>
       </c>
       <c r="C17">
-        <v>10.44047601421727</v>
+        <v>6.396311535119288</v>
       </c>
       <c r="D17">
-        <v>4.983658560777699</v>
+        <v>4.757864685058442</v>
       </c>
       <c r="E17">
-        <v>36.29620194574515</v>
+        <v>19.61201277992648</v>
       </c>
       <c r="F17">
-        <v>19.56548169423337</v>
+        <v>22.95571531780283</v>
       </c>
       <c r="I17">
-        <v>12.13077113524527</v>
+        <v>19.0967567846798</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.95916727583039</v>
+        <v>9.546318880176299</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.62548904059682</v>
+        <v>17.34594850363385</v>
       </c>
       <c r="O17">
-        <v>14.58308844503044</v>
+        <v>20.31448158417405</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.22859868969244</v>
+        <v>9.960160273863568</v>
       </c>
       <c r="C18">
-        <v>10.32067026517974</v>
+        <v>6.337196124392731</v>
       </c>
       <c r="D18">
-        <v>4.947151085638193</v>
+        <v>4.743648986238735</v>
       </c>
       <c r="E18">
-        <v>35.79384682849015</v>
+        <v>19.36974492644785</v>
       </c>
       <c r="F18">
-        <v>19.41990862455188</v>
+        <v>22.94498224192505</v>
       </c>
       <c r="I18">
-        <v>12.13488835864233</v>
+        <v>19.11221855301081</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.79034480427341</v>
+        <v>9.483810919519184</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.67791922179363</v>
+        <v>17.35971941260347</v>
       </c>
       <c r="O18">
-        <v>14.52621603504969</v>
+        <v>20.32128949743259</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.16099264230207</v>
+        <v>9.931589401009361</v>
       </c>
       <c r="C19">
-        <v>10.27983998645499</v>
+        <v>6.317037874434843</v>
       </c>
       <c r="D19">
-        <v>4.93471897459313</v>
+        <v>4.738817277864347</v>
       </c>
       <c r="E19">
-        <v>35.62283139118923</v>
+        <v>19.28703403892656</v>
       </c>
       <c r="F19">
-        <v>19.37078644753722</v>
+        <v>22.9414600897933</v>
       </c>
       <c r="I19">
-        <v>12.1365473114552</v>
+        <v>19.11752184425536</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.73279118338621</v>
+        <v>9.462572501044857</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.69569554081667</v>
+        <v>17.36440914665342</v>
       </c>
       <c r="O19">
-        <v>14.50723541538646</v>
+        <v>20.32367945823811</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.4632464493269</v>
+        <v>10.05958471727975</v>
       </c>
       <c r="C20">
-        <v>10.46252315717526</v>
+        <v>6.40718449283596</v>
       </c>
       <c r="D20">
-        <v>4.990381249003193</v>
+        <v>4.760486844689381</v>
       </c>
       <c r="E20">
-        <v>36.3887395261436</v>
+        <v>19.65652685998974</v>
       </c>
       <c r="F20">
-        <v>19.59250250126607</v>
+        <v>22.95775487203276</v>
       </c>
       <c r="I20">
-        <v>12.13013628228319</v>
+        <v>19.09392757091886</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.99022589080114</v>
+        <v>9.557851904534138</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.61579665791923</v>
+        <v>17.34341270071323</v>
       </c>
       <c r="O20">
-        <v>14.59374568261344</v>
+        <v>20.31326194860177</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.44432277654322</v>
+        <v>10.47921190877326</v>
       </c>
       <c r="C21">
-        <v>11.05792906499455</v>
+        <v>6.70004449668768</v>
       </c>
       <c r="D21">
-        <v>5.17234836415321</v>
+        <v>4.831974791406906</v>
       </c>
       <c r="E21">
-        <v>38.89954581422156</v>
+        <v>20.85059236686358</v>
       </c>
       <c r="F21">
-        <v>20.34871668880905</v>
+        <v>23.02025939722623</v>
       </c>
       <c r="I21">
-        <v>12.12782696971577</v>
+        <v>19.01940849728153</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.8279217361556</v>
+        <v>9.872512993061866</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.34885226361853</v>
+        <v>17.2747502796066</v>
       </c>
       <c r="O21">
-        <v>14.90393466917836</v>
+        <v>20.28417968822002</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.0601079153855</v>
+        <v>10.7453327207005</v>
       </c>
       <c r="C22">
-        <v>11.43353423115179</v>
+        <v>6.883885859364282</v>
       </c>
       <c r="D22">
-        <v>5.287411761190045</v>
+        <v>4.87767814767852</v>
       </c>
       <c r="E22">
-        <v>40.49629174188209</v>
+        <v>21.5958387922888</v>
       </c>
       <c r="F22">
-        <v>20.85105685734463</v>
+        <v>23.066854839142</v>
       </c>
       <c r="I22">
-        <v>12.14160995927267</v>
+        <v>18.97426127101496</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.35524903526154</v>
+        <v>10.11412956890199</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.17527463809626</v>
+        <v>17.23127247654346</v>
       </c>
       <c r="O22">
-        <v>15.12163907683182</v>
+        <v>20.26959720436036</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.73375766062629</v>
+        <v>10.60406468796972</v>
       </c>
       <c r="C23">
-        <v>11.23429178458392</v>
+        <v>6.786463254071489</v>
       </c>
       <c r="D23">
-        <v>5.226359629368565</v>
+        <v>4.853380778849004</v>
       </c>
       <c r="E23">
-        <v>39.6479612614129</v>
+        <v>21.20129168996221</v>
       </c>
       <c r="F23">
-        <v>20.58222234914331</v>
+        <v>23.04146281555333</v>
       </c>
       <c r="I23">
-        <v>12.132791982147</v>
+        <v>18.99803113275983</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.07563727087419</v>
+        <v>9.975358314987377</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.26785107014894</v>
+        <v>17.25434996333096</v>
       </c>
       <c r="O23">
-        <v>15.00404867346818</v>
+        <v>20.27697454701338</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.44677839318398</v>
+        <v>10.05259402946669</v>
       </c>
       <c r="C24">
-        <v>10.45256062374736</v>
+        <v>6.402271510404864</v>
       </c>
       <c r="D24">
-        <v>4.987343275858343</v>
+        <v>4.759301725385157</v>
       </c>
       <c r="E24">
-        <v>36.34692058759529</v>
+        <v>19.63641475436781</v>
       </c>
       <c r="F24">
-        <v>19.58028361794127</v>
+        <v>22.95683077914503</v>
       </c>
       <c r="I24">
-        <v>12.13041840452293</v>
+        <v>19.09520539915011</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.97619164691109</v>
+        <v>9.552639292211651</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.62017808881735</v>
+        <v>17.34455862633682</v>
       </c>
       <c r="O24">
-        <v>14.58892259281131</v>
+        <v>20.31381179543953</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.9477849619213</v>
+        <v>9.425332191843514</v>
       </c>
       <c r="C25">
-        <v>9.550229455599926</v>
+        <v>5.956043802802055</v>
       </c>
       <c r="D25">
-        <v>4.713611840502549</v>
+        <v>4.653682617797074</v>
       </c>
       <c r="E25">
-        <v>32.58138391593197</v>
+        <v>17.79645522314502</v>
       </c>
       <c r="F25">
-        <v>18.53645899310444</v>
+        <v>22.89042059074052</v>
       </c>
       <c r="I25">
-        <v>12.18736729561901</v>
+        <v>19.21521179681097</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.70285299705885</v>
+        <v>9.089243263582297</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.0055030274541</v>
+        <v>17.44790188080151</v>
       </c>
       <c r="O25">
-        <v>14.20264829387231</v>
+        <v>20.37245473735766</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_202/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_202/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.938819938647526</v>
+        <v>13.74704205010691</v>
       </c>
       <c r="C2">
-        <v>5.600988739745013</v>
+        <v>8.834169730462056</v>
       </c>
       <c r="D2">
-        <v>4.572609394117377</v>
+        <v>4.499214925370669</v>
       </c>
       <c r="E2">
-        <v>16.48800361265329</v>
+        <v>29.61745914412066</v>
       </c>
       <c r="F2">
-        <v>22.86306017478282</v>
+        <v>17.80239864025531</v>
       </c>
       <c r="I2">
-        <v>19.31656217468171</v>
+        <v>12.273952892882</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.736392222137528</v>
+        <v>12.68950168548044</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.52924621832931</v>
+        <v>11.29528647563779</v>
       </c>
       <c r="O2">
-        <v>20.43177991603502</v>
+        <v>13.9677177794119</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.595745181530894</v>
+        <v>12.87207686127156</v>
       </c>
       <c r="C3">
-        <v>5.344437272379126</v>
+        <v>8.316518156137997</v>
       </c>
       <c r="D3">
-        <v>4.515740681239266</v>
+        <v>4.3464237260108</v>
       </c>
       <c r="E3">
-        <v>15.55441097959251</v>
+        <v>27.48265050439618</v>
       </c>
       <c r="F3">
-        <v>22.85798319484641</v>
+        <v>17.32806659166522</v>
       </c>
       <c r="I3">
-        <v>19.39331494579942</v>
+        <v>12.35738010549559</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.491567826991453</v>
+        <v>11.95552134949779</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.58768085849675</v>
+        <v>11.49614384474476</v>
       </c>
       <c r="O3">
-        <v>20.48199027864781</v>
+        <v>13.83745789658709</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.379316793265259</v>
+        <v>12.30450424275838</v>
       </c>
       <c r="C4">
-        <v>5.179321475052843</v>
+        <v>7.982768417775185</v>
       </c>
       <c r="D4">
-        <v>4.479922716352376</v>
+        <v>4.249123180991143</v>
       </c>
       <c r="E4">
-        <v>14.95632413581002</v>
+        <v>26.10762330560831</v>
       </c>
       <c r="F4">
-        <v>22.8615069846806</v>
+        <v>17.04880100494792</v>
       </c>
       <c r="I4">
-        <v>19.44440815652837</v>
+        <v>12.41983382369071</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.339027531667458</v>
+        <v>11.48171940607592</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -533,10 +533,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.62520077763389</v>
+        <v>11.62188010162686</v>
       </c>
       <c r="O4">
-        <v>20.51773012443045</v>
+        <v>13.77105884256306</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.289805315195812</v>
+        <v>12.06557361961342</v>
       </c>
       <c r="C5">
-        <v>5.110174352179095</v>
+        <v>7.84278469919307</v>
       </c>
       <c r="D5">
-        <v>4.465107973894142</v>
+        <v>4.208631612669446</v>
       </c>
       <c r="E5">
-        <v>14.70661821184786</v>
+        <v>25.53085235351322</v>
       </c>
       <c r="F5">
-        <v>22.86461198251124</v>
+        <v>16.93809147929505</v>
       </c>
       <c r="I5">
-        <v>19.46622464860703</v>
+        <v>12.44796852597026</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.276404596909028</v>
+        <v>11.28286654895888</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.64090436391063</v>
+        <v>11.67375245081226</v>
       </c>
       <c r="O5">
-        <v>20.53352538254923</v>
+        <v>13.74730495727792</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.274866895163106</v>
+        <v>12.02543780890673</v>
       </c>
       <c r="C6">
-        <v>5.098581682427193</v>
+        <v>7.81930117109404</v>
       </c>
       <c r="D6">
-        <v>4.462635023427376</v>
+        <v>4.201858358869823</v>
       </c>
       <c r="E6">
-        <v>14.66480244666628</v>
+        <v>25.43407933509377</v>
       </c>
       <c r="F6">
-        <v>22.86522831809003</v>
+        <v>16.91989732234678</v>
       </c>
       <c r="I6">
-        <v>19.46990733749204</v>
+        <v>12.4527984390402</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.265981147734605</v>
+        <v>11.24950001852745</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -615,10 +615,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.64353697064661</v>
+        <v>11.68240488504325</v>
       </c>
       <c r="O6">
-        <v>20.53622240527001</v>
+        <v>13.74355683721433</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.378114741901969</v>
+        <v>12.301312882682</v>
       </c>
       <c r="C7">
-        <v>5.178396398896196</v>
+        <v>7.980896615633823</v>
       </c>
       <c r="D7">
-        <v>4.479723794386929</v>
+        <v>4.248580451778452</v>
       </c>
       <c r="E7">
-        <v>14.95298033449859</v>
+        <v>26.09991168166429</v>
       </c>
       <c r="F7">
-        <v>22.86154210416057</v>
+        <v>17.04729530960497</v>
       </c>
       <c r="I7">
-        <v>19.44469835274089</v>
+        <v>12.42020256916827</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.338184714561923</v>
+        <v>11.47906091866059</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -656,10 +656,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.62541088403113</v>
+        <v>11.62257706807176</v>
       </c>
       <c r="O7">
-        <v>20.51793816586435</v>
+        <v>13.77072526200695</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.821805501660975</v>
+        <v>13.45164158006678</v>
       </c>
       <c r="C8">
-        <v>5.51413192611831</v>
+        <v>8.658995031417293</v>
       </c>
       <c r="D8">
-        <v>4.553192520359437</v>
+        <v>4.44727635951366</v>
       </c>
       <c r="E8">
-        <v>16.171406248977</v>
+        <v>28.89453725796091</v>
       </c>
       <c r="F8">
-        <v>22.85993109341566</v>
+        <v>17.6364143937721</v>
       </c>
       <c r="I8">
-        <v>19.3422021219401</v>
+        <v>12.30030232591472</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.652492726037943</v>
+        <v>12.44124706278856</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.54905472874963</v>
+        <v>11.36405951427245</v>
       </c>
       <c r="O8">
-        <v>20.44807106865914</v>
+        <v>13.91992097185521</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.640695799583801</v>
+        <v>15.46769173344343</v>
       </c>
       <c r="C9">
-        <v>6.110539792136334</v>
+        <v>9.862168974600278</v>
       </c>
       <c r="D9">
-        <v>4.689791849368124</v>
+        <v>4.807876640294968</v>
       </c>
       <c r="E9">
-        <v>18.43668239167298</v>
+        <v>33.87858406054254</v>
       </c>
       <c r="F9">
-        <v>22.90945244221206</v>
+        <v>18.88291790205658</v>
       </c>
       <c r="I9">
-        <v>19.17276468284186</v>
+        <v>12.16082078709461</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.247343204631596</v>
+        <v>14.14353292981186</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.4122784791467</v>
+        <v>10.87485899860262</v>
       </c>
       <c r="O9">
-        <v>20.35018428811926</v>
+        <v>14.32484020526744</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.20495719013445</v>
+        <v>16.80471964292029</v>
       </c>
       <c r="C10">
-        <v>6.509086533959637</v>
+        <v>10.66933846420294</v>
       </c>
       <c r="D10">
-        <v>4.785174179689648</v>
+        <v>5.053504563810959</v>
       </c>
       <c r="E10">
-        <v>20.07305316876849</v>
+        <v>37.25824676789029</v>
       </c>
       <c r="F10">
-        <v>22.97785299817613</v>
+        <v>19.84943558800098</v>
       </c>
       <c r="I10">
-        <v>19.06763133117378</v>
+        <v>12.12606412348776</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.666472813777041</v>
+        <v>15.28143871761336</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.3196013855352</v>
+        <v>10.52420947503504</v>
       </c>
       <c r="O10">
-        <v>20.30232048843285</v>
+        <v>14.69660629647448</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.45248734535772</v>
+        <v>17.38223708221631</v>
       </c>
       <c r="C11">
-        <v>6.681506434958139</v>
+        <v>11.02013999019725</v>
       </c>
       <c r="D11">
-        <v>4.827401096023093</v>
+        <v>5.160780335028857</v>
       </c>
       <c r="E11">
-        <v>20.7752704493664</v>
+        <v>38.7394777755905</v>
       </c>
       <c r="F11">
-        <v>23.01587354065716</v>
+        <v>20.29923694694173</v>
       </c>
       <c r="I11">
-        <v>19.0240302538781</v>
+        <v>12.12710544561512</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.852373386948615</v>
+        <v>15.7748185575494</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.27911795372297</v>
+        <v>10.36609317985907</v>
       </c>
       <c r="O11">
-        <v>20.28580655244911</v>
+        <v>14.88297060340085</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.54483155020264</v>
+        <v>17.59656697919954</v>
       </c>
       <c r="C12">
-        <v>6.745502237611032</v>
+        <v>11.15065665052118</v>
       </c>
       <c r="D12">
-        <v>4.843217351457426</v>
+        <v>5.200741952890228</v>
       </c>
       <c r="E12">
-        <v>21.03515283316829</v>
+        <v>39.29276068176095</v>
       </c>
       <c r="F12">
-        <v>23.0312574314405</v>
+        <v>20.47096119009802</v>
       </c>
       <c r="I12">
-        <v>19.00812924808032</v>
+        <v>12.13010798214551</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.922019169569593</v>
+        <v>15.95818955495878</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.26402753495288</v>
+        <v>10.30637404938294</v>
       </c>
       <c r="O12">
-        <v>20.28031199204047</v>
+        <v>14.95610597974144</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.52500646403383</v>
+        <v>17.55060037623142</v>
       </c>
       <c r="C13">
-        <v>6.731777491317749</v>
+        <v>11.1226503316384</v>
       </c>
       <c r="D13">
-        <v>4.839818890874811</v>
+        <v>5.192165208930813</v>
       </c>
       <c r="E13">
-        <v>20.979450269646</v>
+        <v>39.17393280059468</v>
       </c>
       <c r="F13">
-        <v>23.02790048672481</v>
+        <v>20.4339161016164</v>
       </c>
       <c r="I13">
-        <v>19.01152665793708</v>
+        <v>12.12934232893629</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.907054073074653</v>
+        <v>15.91885073328595</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.26726688153117</v>
+        <v>10.31922944621913</v>
       </c>
       <c r="O13">
-        <v>20.28146155369951</v>
+        <v>14.94023966571973</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.46011280418878</v>
+        <v>17.39995726324707</v>
       </c>
       <c r="C14">
-        <v>6.686797474023811</v>
+        <v>11.0309240450527</v>
       </c>
       <c r="D14">
-        <v>4.828705837955122</v>
+        <v>5.164081361536075</v>
       </c>
       <c r="E14">
-        <v>20.79677183394269</v>
+        <v>38.78514678734859</v>
       </c>
       <c r="F14">
-        <v>23.01711945740166</v>
+        <v>20.31333715733679</v>
       </c>
       <c r="I14">
-        <v>19.02270983468863</v>
+        <v>12.12729911510215</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.858118587352095</v>
+        <v>15.78997377808688</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.27787165724953</v>
+        <v>10.36117719342808</v>
       </c>
       <c r="O14">
-        <v>20.28533928839144</v>
+        <v>14.88893565511553</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.42018051987005</v>
+        <v>17.30711739982572</v>
       </c>
       <c r="C15">
-        <v>6.659076658829463</v>
+        <v>10.97443744039835</v>
       </c>
       <c r="D15">
-        <v>4.821875890675936</v>
+        <v>5.146792515015803</v>
       </c>
       <c r="E15">
-        <v>20.68409143438198</v>
+        <v>38.54602510577262</v>
       </c>
       <c r="F15">
-        <v>23.01064399768282</v>
+        <v>20.23965908321271</v>
       </c>
       <c r="I15">
-        <v>19.02963933183471</v>
+        <v>12.12639283510239</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.828044578586272</v>
+        <v>15.71058313862847</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.28439857916186</v>
+        <v>10.38689033088569</v>
       </c>
       <c r="O15">
-        <v>20.28781341615472</v>
+        <v>14.85784670702289</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.18858976415794</v>
+        <v>16.76636396688897</v>
       </c>
       <c r="C16">
-        <v>6.497638087373522</v>
+        <v>10.64608559659824</v>
       </c>
       <c r="D16">
-        <v>4.782390550488811</v>
+        <v>5.046402311061172</v>
       </c>
       <c r="E16">
-        <v>20.02631573808457</v>
+        <v>37.16035179615214</v>
       </c>
       <c r="F16">
-        <v>22.97550667843961</v>
+        <v>19.82023812672954</v>
       </c>
       <c r="I16">
-        <v>19.07056596924025</v>
+        <v>12.12635085764028</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.654222155501122</v>
+        <v>15.24870913082393</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.32228069194867</v>
+        <v>10.53456711080494</v>
       </c>
       <c r="O16">
-        <v>20.30350577803943</v>
+        <v>14.68478117128755</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.04411585700317</v>
+        <v>16.42680020387802</v>
       </c>
       <c r="C17">
-        <v>6.396311535119288</v>
+        <v>10.44047601421726</v>
       </c>
       <c r="D17">
-        <v>4.757864685058442</v>
+        <v>4.983658560777712</v>
       </c>
       <c r="E17">
-        <v>19.61201277992648</v>
+        <v>36.29620194574521</v>
       </c>
       <c r="F17">
-        <v>22.95571531780283</v>
+        <v>19.56548169423341</v>
       </c>
       <c r="I17">
-        <v>19.0967567846798</v>
+        <v>12.13077113524525</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.546318880176299</v>
+        <v>14.95916727583037</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.34594850363385</v>
+        <v>10.62548904059679</v>
       </c>
       <c r="O17">
-        <v>20.31448158417405</v>
+        <v>14.58308844503045</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.960160273863568</v>
+        <v>16.22859868969238</v>
       </c>
       <c r="C18">
-        <v>6.337196124392731</v>
+        <v>10.32067026517971</v>
       </c>
       <c r="D18">
-        <v>4.743648986238735</v>
+        <v>4.947151085638327</v>
       </c>
       <c r="E18">
-        <v>19.36974492644785</v>
+        <v>35.7938468284902</v>
       </c>
       <c r="F18">
-        <v>22.94498224192505</v>
+        <v>19.41990862455185</v>
       </c>
       <c r="I18">
-        <v>19.11221855301081</v>
+        <v>12.1348883586424</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.483810919519184</v>
+        <v>14.79034480427334</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.35971941260347</v>
+        <v>10.67791922179363</v>
       </c>
       <c r="O18">
-        <v>20.32128949743259</v>
+        <v>14.52621603504973</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.931589401009361</v>
+        <v>16.16099264230203</v>
       </c>
       <c r="C19">
-        <v>6.317037874434843</v>
+        <v>10.27983998645512</v>
       </c>
       <c r="D19">
-        <v>4.738817277864347</v>
+        <v>4.934718974593168</v>
       </c>
       <c r="E19">
-        <v>19.28703403892656</v>
+        <v>35.62283139118925</v>
       </c>
       <c r="F19">
-        <v>22.9414600897933</v>
+        <v>19.37078644753727</v>
       </c>
       <c r="I19">
-        <v>19.11752184425536</v>
+        <v>12.13654731145532</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.462572501044857</v>
+        <v>14.73279118338619</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.36440914665342</v>
+        <v>10.6956955408167</v>
       </c>
       <c r="O19">
-        <v>20.32367945823811</v>
+        <v>14.50723541538656</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.05958471727975</v>
+        <v>16.4632464493269</v>
       </c>
       <c r="C20">
-        <v>6.40718449283596</v>
+        <v>10.46252315717509</v>
       </c>
       <c r="D20">
-        <v>4.760486844689381</v>
+        <v>4.990381249003137</v>
       </c>
       <c r="E20">
-        <v>19.65652685998974</v>
+        <v>36.38873952614358</v>
       </c>
       <c r="F20">
-        <v>22.95775487203276</v>
+        <v>19.59250250126617</v>
       </c>
       <c r="I20">
-        <v>19.09392757091886</v>
+        <v>12.13013628228328</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.557851904534138</v>
+        <v>14.99022589080109</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.34341270071323</v>
+        <v>10.61579665791926</v>
       </c>
       <c r="O20">
-        <v>20.31326194860177</v>
+        <v>14.59374568261355</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.47921190877326</v>
+        <v>17.44432277654318</v>
       </c>
       <c r="C21">
-        <v>6.70004449668768</v>
+        <v>11.05792906499454</v>
       </c>
       <c r="D21">
-        <v>4.831974791406906</v>
+        <v>5.172348364153261</v>
       </c>
       <c r="E21">
-        <v>20.85059236686358</v>
+        <v>38.89954581422158</v>
       </c>
       <c r="F21">
-        <v>23.02025939722623</v>
+        <v>20.34871668880911</v>
       </c>
       <c r="I21">
-        <v>19.01940849728153</v>
+        <v>12.12782696971588</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.872512993061866</v>
+        <v>15.8279217361556</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.2747502796066</v>
+        <v>10.34885226361856</v>
       </c>
       <c r="O21">
-        <v>20.28417968822002</v>
+        <v>14.90393466917841</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.7453327207005</v>
+        <v>18.06010791538543</v>
       </c>
       <c r="C22">
-        <v>6.883885859364282</v>
+        <v>11.43353423115197</v>
       </c>
       <c r="D22">
-        <v>4.87767814767852</v>
+        <v>5.287411761189988</v>
       </c>
       <c r="E22">
-        <v>21.5958387922888</v>
+        <v>40.49629174188212</v>
       </c>
       <c r="F22">
-        <v>23.066854839142</v>
+        <v>20.85105685734466</v>
       </c>
       <c r="I22">
-        <v>18.97426127101496</v>
+        <v>12.14160995927274</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.11412956890199</v>
+        <v>16.35524903526155</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.23127247654346</v>
+        <v>10.17527463809626</v>
       </c>
       <c r="O22">
-        <v>20.26959720436036</v>
+        <v>15.12163907683184</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.60406468796972</v>
+        <v>17.73375766062645</v>
       </c>
       <c r="C23">
-        <v>6.786463254071489</v>
+        <v>11.23429178458383</v>
       </c>
       <c r="D23">
-        <v>4.853380778849004</v>
+        <v>5.226359629368644</v>
       </c>
       <c r="E23">
-        <v>21.20129168996221</v>
+        <v>39.6479612614129</v>
       </c>
       <c r="F23">
-        <v>23.04146281555333</v>
+        <v>20.58222234914323</v>
       </c>
       <c r="I23">
-        <v>18.99803113275983</v>
+        <v>12.13279198214684</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.975358314987377</v>
+        <v>16.07563727087428</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.25434996333096</v>
+        <v>10.26785107014884</v>
       </c>
       <c r="O23">
-        <v>20.27697454701338</v>
+        <v>15.0040486734681</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.05259402946669</v>
+        <v>16.44677839318389</v>
       </c>
       <c r="C24">
-        <v>6.402271510404864</v>
+        <v>10.45256062374736</v>
       </c>
       <c r="D24">
-        <v>4.759301725385157</v>
+        <v>4.98734327585851</v>
       </c>
       <c r="E24">
-        <v>19.63641475436781</v>
+        <v>36.34692058759529</v>
       </c>
       <c r="F24">
-        <v>22.95683077914503</v>
+        <v>19.5802836179413</v>
       </c>
       <c r="I24">
-        <v>19.09520539915011</v>
+        <v>12.13041840452304</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.552639292211651</v>
+        <v>14.97619164691104</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.34455862633682</v>
+        <v>10.62017808881738</v>
       </c>
       <c r="O24">
-        <v>20.31381179543953</v>
+        <v>14.58892259281139</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.425332191843514</v>
+        <v>14.94778496192127</v>
       </c>
       <c r="C25">
-        <v>5.956043802802055</v>
+        <v>9.550229455599926</v>
       </c>
       <c r="D25">
-        <v>4.653682617797074</v>
+        <v>4.713611840502607</v>
       </c>
       <c r="E25">
-        <v>17.79645522314502</v>
+        <v>32.58138391593194</v>
       </c>
       <c r="F25">
-        <v>22.89042059074052</v>
+        <v>18.53645899310443</v>
       </c>
       <c r="I25">
-        <v>19.21521179681097</v>
+        <v>12.18736729561901</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.089243263582297</v>
+        <v>13.70285299705881</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.44790188080151</v>
+        <v>11.00550302745406</v>
       </c>
       <c r="O25">
-        <v>20.37245473735766</v>
+        <v>14.20264829387231</v>
       </c>
     </row>
   </sheetData>
